--- a/Data Files/EXCEL FILES/Create_arena.xlsx
+++ b/Data Files/EXCEL FILES/Create_arena.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janine.bautista\git\CLICKPLAY\Data Files\EXCEL FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CLICKPLAY\Data Files\EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>F1</t>
   </si>
@@ -32,9 +33,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>ARENA_TEST</t>
-  </si>
-  <si>
     <t>ArenaName</t>
   </si>
   <si>
@@ -45,6 +43,57 @@
   </si>
   <si>
     <t>ProfitMargin</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>ARENA_TEST1</t>
+  </si>
+  <si>
+    <t>ARENA_TEST2</t>
+  </si>
+  <si>
+    <t>ARENA_TEST3</t>
+  </si>
+  <si>
+    <t>ARENA_TEST4</t>
+  </si>
+  <si>
+    <t>ARENA_TEST5</t>
+  </si>
+  <si>
+    <t>ARENA_TEST6</t>
+  </si>
+  <si>
+    <t>TEST1</t>
   </si>
 </sst>
 </file>
@@ -365,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,27 +430,146 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
